--- a/REGULAR/MAHOGANY MARKET/HERNANDEZ, MARIO.xlsx
+++ b/REGULAR/MAHOGANY MARKET/HERNANDEZ, MARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAHOGANY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAHOGANY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CBCC16-A877-46AC-A40F-EC31AC3D6CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,12 +282,15 @@
   </si>
   <si>
     <t>8/4-7/2023</t>
+  </si>
+  <si>
+    <t>9/16,17/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -957,7 +959,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -974,25 +976,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1299,34 +1301,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1349,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1369,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1397,7 +1399,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1410,7 +1412,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1427,7 +1429,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1471,7 +1473,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>221.91200000000001</v>
+        <v>223.16200000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1481,12 +1483,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>346.04</v>
+        <v>345.29</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1508,7 +1510,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1528,7 +1530,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1548,7 +1550,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1568,7 +1570,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1588,7 +1590,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1632,7 +1634,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1652,7 +1654,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1672,7 +1674,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1692,7 +1694,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1738,7 +1740,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1762,7 +1764,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>48</v>
       </c>
@@ -1780,7 +1782,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1800,7 +1802,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1820,7 +1822,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1840,7 +1842,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -1883,7 +1885,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1903,7 +1905,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1923,7 +1925,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1943,7 +1945,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1963,7 +1965,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -2008,7 +2010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -2028,7 +2030,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -2048,7 +2050,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2092,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -2110,7 +2112,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -2154,7 +2156,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -2174,7 +2176,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -2194,7 +2196,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -2214,7 +2216,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>62</v>
@@ -2259,7 +2261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>45</v>
@@ -2276,7 +2278,7 @@
         <v>44045</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>44094</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -2348,7 +2350,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -2368,7 +2370,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>61</v>
@@ -2409,7 +2411,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>59</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -2447,7 +2449,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44228</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44256</v>
       </c>
@@ -2487,7 +2489,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44287</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44317</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44348</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44378</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44409</v>
       </c>
@@ -2591,7 +2593,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44440</v>
       </c>
@@ -2611,7 +2613,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44470</v>
       </c>
@@ -2631,7 +2633,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44501</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44531</v>
       </c>
@@ -2675,7 +2677,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>64</v>
       </c>
@@ -2693,7 +2695,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44562</v>
       </c>
@@ -2713,7 +2715,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44593</v>
       </c>
@@ -2733,7 +2735,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44621</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>65</v>
@@ -2778,7 +2780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>80</v>
@@ -2822,7 +2824,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44682</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44713</v>
       </c>
@@ -2868,7 +2870,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44743</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>77</v>
@@ -2914,7 +2916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44774</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>44794</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44805</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>44822</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>76</v>
@@ -2986,7 +2988,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44835</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44866</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -3060,7 +3062,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44896</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>68</v>
       </c>
@@ -3104,7 +3106,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44927</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44986</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>51</v>
@@ -3200,7 +3202,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="49"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45017</v>
       </c>
@@ -3220,7 +3222,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45047</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45078</v>
       </c>
@@ -3266,7 +3268,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45108</v>
       </c>
@@ -3292,22 +3294,24 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45139</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39">
         <v>4</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -3316,11 +3320,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45170</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -3329,12 +3335,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>2</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45200</v>
       </c>
@@ -3352,7 +3362,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45231</v>
       </c>
@@ -3370,7 +3380,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45261</v>
       </c>
@@ -3388,7 +3398,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45292</v>
       </c>
@@ -3406,7 +3416,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45323</v>
       </c>
@@ -3424,7 +3434,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45352</v>
       </c>
@@ -3442,7 +3452,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45383</v>
       </c>
@@ -3460,7 +3470,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45413</v>
       </c>
@@ -3478,7 +3488,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45444</v>
       </c>
@@ -3496,7 +3506,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45474</v>
       </c>
@@ -3514,7 +3524,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45505</v>
       </c>
@@ -3532,7 +3542,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45536</v>
       </c>
@@ -3550,7 +3560,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45566</v>
       </c>
@@ -3568,7 +3578,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45597</v>
       </c>
@@ -3586,7 +3596,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45627</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45658</v>
       </c>
@@ -3622,7 +3632,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45689</v>
       </c>
@@ -3640,7 +3650,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45717</v>
       </c>
@@ -3658,7 +3668,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45748</v>
       </c>
@@ -3676,7 +3686,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45778</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45809</v>
       </c>
@@ -3712,7 +3722,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45839</v>
       </c>
@@ -3730,7 +3740,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45870</v>
       </c>
@@ -3748,7 +3758,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45901</v>
       </c>
@@ -3766,7 +3776,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45931</v>
       </c>
@@ -3784,7 +3794,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45962</v>
       </c>
@@ -3802,7 +3812,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45992</v>
       </c>
@@ -3820,7 +3830,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46023</v>
       </c>
@@ -3838,7 +3848,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46054</v>
       </c>
@@ -3856,7 +3866,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46082</v>
       </c>
@@ -3874,7 +3884,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46113</v>
       </c>
@@ -3892,7 +3902,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46143</v>
       </c>
@@ -3910,7 +3920,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46174</v>
       </c>
@@ -3928,7 +3938,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46204</v>
       </c>
@@ -3946,7 +3956,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46235</v>
       </c>
@@ -3964,7 +3974,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46266</v>
       </c>
@@ -3982,7 +3992,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46296</v>
       </c>
@@ -4000,7 +4010,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46327</v>
       </c>
@@ -4018,7 +4028,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46357</v>
       </c>
@@ -4036,7 +4046,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>46388</v>
       </c>
@@ -4054,7 +4064,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4070,7 +4080,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4086,7 +4096,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4102,7 +4112,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4118,7 +4128,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4134,7 +4144,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -4165,10 +4175,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4191,28 +4201,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4225,7 +4235,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4254,7 +4264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>183.512</v>
       </c>
@@ -4284,17 +4294,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4325,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4368,7 +4378,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4394,7 +4404,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4420,7 +4430,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4472,7 +4482,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4544,7 +4554,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4584,7 +4594,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4605,7 +4615,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4689,7 +4699,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4731,7 +4741,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4794,7 +4804,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4836,7 +4846,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5013,7 +5023,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5022,7 +5032,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5031,7 +5041,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5040,7 +5050,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5049,7 +5059,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5058,7 +5068,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5067,7 +5077,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5076,7 +5086,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5085,7 +5095,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5094,7 +5104,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5103,7 +5113,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5112,7 +5122,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5121,7 +5131,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5130,7 +5140,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5139,7 +5149,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5148,7 +5158,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5157,7 +5167,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5166,7 +5176,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5175,7 +5185,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5184,7 +5194,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5193,7 +5203,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5202,7 +5212,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5211,7 +5221,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5220,7 +5230,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5229,7 +5239,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5238,7 +5248,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5247,7 +5257,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5256,7 +5266,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5265,7 +5275,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAHOGANY MARKET/HERNANDEZ, MARIO.xlsx
+++ b/REGULAR/MAHOGANY MARKET/HERNANDEZ, MARIO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
   <si>
     <t>PERIOD</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>9/16,17/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/12-14/2024</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K458" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1585,12 +1591,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K458"/>
+  <dimension ref="A2:K459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A395" activePane="bottomLeft"/>
       <selection activeCell="H385" sqref="H385:K458"/>
-      <selection pane="bottomLeft" activeCell="E411" sqref="E411"/>
+      <selection pane="bottomLeft" activeCell="I417" sqref="I417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1759,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>237.78900000000002</v>
+        <v>239.03900000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1763,7 +1769,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>354.91699999999997</v>
+        <v>353.16699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10287,13 +10293,15 @@
       <c r="B415" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C415" s="13"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D415" s="39"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H415" s="39">
         <v>1</v>
@@ -10305,8 +10313,8 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40">
-        <v>45292</v>
+      <c r="A416" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10320,13 +10328,15 @@
       <c r="H416" s="39"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="49"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B417" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
@@ -10335,14 +10345,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H417" s="39"/>
+      <c r="H417" s="39">
+        <v>3</v>
+      </c>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="20" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10360,7 +10374,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10378,7 +10392,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10396,7 +10410,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10414,7 +10428,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10432,7 +10446,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10450,7 +10464,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10468,7 +10482,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10486,7 +10500,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10504,7 +10518,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10522,7 +10536,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10540,7 +10554,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10558,7 +10572,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10576,7 +10590,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10594,7 +10608,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10612,7 +10626,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10630,7 +10644,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10648,7 +10662,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10666,7 +10680,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10684,7 +10698,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10702,7 +10716,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10720,7 +10734,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10738,7 +10752,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10756,7 +10770,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10774,7 +10788,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10792,7 +10806,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10810,7 +10824,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10828,7 +10842,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10846,7 +10860,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10864,7 +10878,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10882,7 +10896,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10900,7 +10914,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10918,7 +10932,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10936,7 +10950,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10954,7 +10968,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10971,7 +10985,9 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="40"/>
+      <c r="A453" s="40">
+        <v>46388</v>
+      </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
       <c r="D453" s="39"/>
@@ -11051,20 +11067,36 @@
       <c r="K457" s="20"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="41"/>
-      <c r="B458" s="15"/>
-      <c r="C458" s="42"/>
-      <c r="D458" s="43"/>
+      <c r="A458" s="40"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39"/>
       <c r="E458" s="9"/>
-      <c r="F458" s="15"/>
-      <c r="G458" s="42" t="str">
+      <c r="F458" s="20"/>
+      <c r="G458" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H458" s="43"/>
+      <c r="H458" s="39"/>
       <c r="I458" s="9"/>
-      <c r="J458" s="12"/>
-      <c r="K458" s="15"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="41"/>
+      <c r="B459" s="15"/>
+      <c r="C459" s="42"/>
+      <c r="D459" s="43"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="15"/>
+      <c r="G459" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="43"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="12"/>
+      <c r="K459" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
